--- a/02.Requisitos funcionais/REQUISITOS FUNCIONAIS - JAVA-LIDAY.xlsx
+++ b/02.Requisitos funcionais/REQUISITOS FUNCIONAIS - JAVA-LIDAY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/855df28f574bbfe6/Área de Trabalho/ADS/REP-GIT/Java-liday/Requisitos funcionais/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/855df28f574bbfe6/Área de Trabalho/ADS/REP-GIT/Java-liday/02.Requisitos funcionais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{0A66CC69-5BD9-478D-81DE-C5CFD0CDA96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A83D66AE-977A-4577-A5E6-E971EB217C3E}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{0A66CC69-5BD9-478D-81DE-C5CFD0CDA96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BEA7436-2CAB-4F6B-BDCF-5EAB61825199}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4ABF0B59-3EAA-4472-9014-1459B26A9A3B}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>Fazer Logout</t>
   </si>
   <si>
-    <t>Alterar Senha</t>
-  </si>
-  <si>
     <t>Gerenciar Pallet</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>DATA: 23/09/2025</t>
+  </si>
+  <si>
+    <t>Recuperar senha</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -473,13 +473,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -798,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3837308E-2BE3-4051-9282-618B7392BE50}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,7 +822,7 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1"/>
     </row>
@@ -839,8 +833,7 @@
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="C7" s="10"/>
-      <c r="E7" s="12"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="9" spans="1:5" s="4" customFormat="1" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -856,7 +849,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
@@ -884,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
@@ -904,8 +897,8 @@
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>49</v>
+      <c r="E12" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="70.2" x14ac:dyDescent="0.3">
@@ -913,16 +906,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>50</v>
+      <c r="E13" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
@@ -930,16 +923,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>50</v>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
@@ -947,16 +940,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="70.2" x14ac:dyDescent="0.3">
@@ -964,16 +957,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
@@ -984,13 +977,13 @@
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
@@ -998,16 +991,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
@@ -1015,16 +1008,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
@@ -1032,16 +1025,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="23.4" x14ac:dyDescent="0.3">
@@ -1049,33 +1042,33 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="70.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1095,6 +1088,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010046C0C4FE9B648F44981F210CC4895080" ma:contentTypeVersion="0" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ea081297845bd8da37d411c41c8d0221">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="574c6ccb71ee63fbc30cff3237551ec3">
     <xsd:element name="properties">
@@ -1208,12 +1207,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
   <ds:schemaRefs>
@@ -1223,6 +1216,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC591C5-275D-472E-91DB-ABCDD82F11B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1236,13 +1238,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/02.Requisitos funcionais/REQUISITOS FUNCIONAIS - JAVA-LIDAY.xlsx
+++ b/02.Requisitos funcionais/REQUISITOS FUNCIONAIS - JAVA-LIDAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/855df28f574bbfe6/Área de Trabalho/ADS/REP-GIT/Java-liday/02.Requisitos funcionais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{0A66CC69-5BD9-478D-81DE-C5CFD0CDA96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BEA7436-2CAB-4F6B-BDCF-5EAB61825199}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{0A66CC69-5BD9-478D-81DE-C5CFD0CDA96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C3DFC1-15C1-4388-864E-11C3C67C6418}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4ABF0B59-3EAA-4472-9014-1459B26A9A3B}"/>
   </bookViews>
@@ -214,9 +214,6 @@
     <t>Permite ao usuário editar suas informações pessoais.</t>
   </si>
   <si>
-    <t>Sistema envia e valida o e-mail do usuário após o cadastro</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Permite o usuário </t>
     </r>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Recuperar senha</t>
+  </si>
+  <si>
+    <t>Sistema envia e-mail com código de confirmação para primeiro login.</t>
   </si>
 </sst>
 </file>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3837308E-2BE3-4051-9282-618B7392BE50}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +822,7 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="1"/>
     </row>
@@ -877,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
@@ -898,7 +898,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="70.2" x14ac:dyDescent="0.3">
@@ -909,13 +909,13 @@
         <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
@@ -926,13 +926,13 @@
         <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
@@ -943,7 +943,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>15</v>
@@ -991,10 +991,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>8</v>
@@ -1011,7 +1011,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>8</v>
@@ -1028,7 +1028,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>8</v>
@@ -1062,7 +1062,7 @@
         <v>40</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>8</v>

--- a/02.Requisitos funcionais/REQUISITOS FUNCIONAIS - JAVA-LIDAY.xlsx
+++ b/02.Requisitos funcionais/REQUISITOS FUNCIONAIS - JAVA-LIDAY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/855df28f574bbfe6/Área de Trabalho/ADS/REP-GIT/Java-liday/02.Requisitos funcionais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{0A66CC69-5BD9-478D-81DE-C5CFD0CDA96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C3DFC1-15C1-4388-864E-11C3C67C6418}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{0A66CC69-5BD9-478D-81DE-C5CFD0CDA96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50E632A5-95AC-450E-8FF8-0ED411B81274}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4ABF0B59-3EAA-4472-9014-1459B26A9A3B}"/>
   </bookViews>
@@ -329,13 +329,13 @@
     <t>Usuário pode alterar senha a partir de usuário e email</t>
   </si>
   <si>
-    <t>DATA: 23/09/2025</t>
-  </si>
-  <si>
     <t>Recuperar senha</t>
   </si>
   <si>
     <t>Sistema envia e-mail com código de confirmação para primeiro login.</t>
+  </si>
+  <si>
+    <t>DATA: 28/10/2025</t>
   </si>
 </sst>
 </file>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3837308E-2BE3-4051-9282-618B7392BE50}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +822,7 @@
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="1"/>
     </row>
@@ -877,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>8</v>
@@ -991,7 +991,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>52</v>
@@ -1088,12 +1088,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010046C0C4FE9B648F44981F210CC4895080" ma:contentTypeVersion="0" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ea081297845bd8da37d411c41c8d0221">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="574c6ccb71ee63fbc30cff3237551ec3">
     <xsd:element name="properties">
@@ -1207,6 +1201,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
   <ds:schemaRefs>
@@ -1216,15 +1216,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC591C5-275D-472E-91DB-ABCDD82F11B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1238,4 +1229,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>